--- a/sheet_guest.xlsx
+++ b/sheet_guest.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="131">
-  <si>
-    <t>Name of Invitee</t>
-  </si>
-  <si>
-    <t>Entry Number of invitee</t>
-  </si>
-  <si>
-    <t>Number of guests</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="166">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EntryNum</t>
+  </si>
+  <si>
+    <t>email-id</t>
   </si>
   <si>
     <t>Supraja Kolli_1</t>
@@ -31,12 +31,18 @@
     <t xml:space="preserve">2020BEZ8516 </t>
   </si>
   <si>
+    <t xml:space="preserve">bez208516@iitd.ac.in </t>
+  </si>
+  <si>
     <t>Anudeep_1</t>
   </si>
   <si>
     <t>2019CHZ8666</t>
   </si>
   <si>
+    <t>chz198666@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Anudeep_2</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
     <t>2023CEZ8111</t>
   </si>
   <si>
+    <t>viswanath.velamuri1@gmail.com</t>
+  </si>
+  <si>
     <t>viswanath velamuri_2</t>
   </si>
   <si>
@@ -61,6 +70,9 @@
     <t>2022CEP2763</t>
   </si>
   <si>
+    <t>cep222763@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Gayatri_2</t>
   </si>
   <si>
@@ -73,18 +85,27 @@
     <t>2022eee2768</t>
   </si>
   <si>
+    <t>eee222768@ee.iitd.ac.in</t>
+  </si>
+  <si>
     <t>Narveer</t>
   </si>
   <si>
     <t>2022EEE2711</t>
   </si>
   <si>
+    <t>eee222711@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Gnapika Indla_1</t>
   </si>
   <si>
     <t>2023BB10049</t>
   </si>
   <si>
+    <t>gnapikaindla.13@gmail.com</t>
+  </si>
+  <si>
     <t>Gnapika Indla_2</t>
   </si>
   <si>
@@ -97,6 +118,9 @@
     <t>2020EE10565</t>
   </si>
   <si>
+    <t>ee1200565@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Vanchanagiri Alekhya_2</t>
   </si>
   <si>
@@ -106,6 +130,9 @@
     <t>2022ees2077</t>
   </si>
   <si>
+    <t>umpriyatam@gmail.com</t>
+  </si>
+  <si>
     <t>U meher priyatam_2</t>
   </si>
   <si>
@@ -115,6 +142,9 @@
     <t>2020BEZ8510</t>
   </si>
   <si>
+    <t>bez208510@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Abhilash_2</t>
   </si>
   <si>
@@ -133,12 +163,18 @@
     <t>2022AMY7559</t>
   </si>
   <si>
+    <t>helaambati.aero.iiests@gmail.com</t>
+  </si>
+  <si>
     <t>Nenawat Pallavi_1</t>
   </si>
   <si>
     <t>2023TT10892</t>
   </si>
   <si>
+    <t xml:space="preserve">tt1230892@iitd.ac.in </t>
+  </si>
+  <si>
     <t>Nenawat Pallavi_2</t>
   </si>
   <si>
@@ -148,12 +184,18 @@
     <t>2023TT10768</t>
   </si>
   <si>
+    <t>narnolia21neelam@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surya Narayana Yerramilli_1 </t>
   </si>
   <si>
     <t>2022MSP2517</t>
   </si>
   <si>
+    <t>msp222517@iitd.ac.in</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surya Narayana Yerramilli_2 </t>
   </si>
   <si>
@@ -163,6 +205,9 @@
     <t>2022AMA2292</t>
   </si>
   <si>
+    <t>ama222292@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Upola Yadagiri_2</t>
   </si>
   <si>
@@ -178,6 +223,9 @@
     <t>2022AMA2288</t>
   </si>
   <si>
+    <t>mtvstarun4@gmail.com</t>
+  </si>
+  <si>
     <t xml:space="preserve">Manikala Tej Venkata Sai Tarun_2 </t>
   </si>
   <si>
@@ -205,6 +253,9 @@
     <t>2022JID2320</t>
   </si>
   <si>
+    <t>jid222320@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Ambati Devender Naidu_2</t>
   </si>
   <si>
@@ -220,6 +271,9 @@
     <t>2023EET2194</t>
   </si>
   <si>
+    <t xml:space="preserve">eet232194@iitd.ac.in </t>
+  </si>
+  <si>
     <t>Shaik Kareem_2</t>
   </si>
   <si>
@@ -229,6 +283,9 @@
     <t xml:space="preserve">2019EEZ8562 </t>
   </si>
   <si>
+    <t>Satishpaturi341@gmail.com</t>
+  </si>
+  <si>
     <t>Satish Kumar Paturi_2</t>
   </si>
   <si>
@@ -244,6 +301,9 @@
     <t>2021AMZ8554</t>
   </si>
   <si>
+    <t>amz218554@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Datti Ganapathi_2</t>
   </si>
   <si>
@@ -253,6 +313,9 @@
     <t xml:space="preserve">ASZ238484 </t>
   </si>
   <si>
+    <t>asz238484@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Rajesh_2</t>
   </si>
   <si>
@@ -268,12 +331,18 @@
     <t>2022eee2709</t>
   </si>
   <si>
+    <t>eee222709@ee.iitd.ac.in</t>
+  </si>
+  <si>
     <t>ESLAVATH VIDHATH_1</t>
   </si>
   <si>
     <t>2022AM11833</t>
   </si>
   <si>
+    <t>eslavathvidhath@gmail.com</t>
+  </si>
+  <si>
     <t>ESLAVATH VIDHATH_2</t>
   </si>
   <si>
@@ -283,6 +352,9 @@
     <t>2023ASZ8215</t>
   </si>
   <si>
+    <t>asz238215@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Siva Prasad Vanum_2</t>
   </si>
   <si>
@@ -298,6 +370,9 @@
     <t>2023AMX5530</t>
   </si>
   <si>
+    <t>namratharaghavan202@gmail.com</t>
+  </si>
+  <si>
     <t>Namratha B_2</t>
   </si>
   <si>
@@ -307,24 +382,36 @@
     <t>2022JTM2393</t>
   </si>
   <si>
+    <t>jtm222393@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Nuthi Premchand_1</t>
   </si>
   <si>
     <t xml:space="preserve">2022MSP2752 </t>
   </si>
   <si>
+    <t xml:space="preserve">msp222752@iitd.ac.in </t>
+  </si>
+  <si>
     <t>Nuthi Premchand_2</t>
   </si>
   <si>
     <t>Meher priyatam_1</t>
   </si>
   <si>
+    <t>jinnarun123@gmail.com</t>
+  </si>
+  <si>
     <t>Meher priyatam_2</t>
   </si>
   <si>
     <t>Dr. B. Venkat_1</t>
   </si>
   <si>
+    <t>venkatb7@gmail.com</t>
+  </si>
+  <si>
     <t>Dr. B. Venkat_2</t>
   </si>
   <si>
@@ -370,6 +457,18 @@
     <t>Killampallli rajesh_2</t>
   </si>
   <si>
+    <t>asz228435@iitd.ac.in</t>
+  </si>
+  <si>
+    <t>asz228436@iitd.ac.in</t>
+  </si>
+  <si>
+    <t>asz228437@iitd.ac.in</t>
+  </si>
+  <si>
+    <t>asz228438@iitd.ac.in</t>
+  </si>
+  <si>
     <t>Siva Prasad Vanum_5</t>
   </si>
   <si>
@@ -379,6 +478,9 @@
     <t>2023ES10422</t>
   </si>
   <si>
+    <t>sanjanabandlamudi7@gmail.com</t>
+  </si>
+  <si>
     <t>Sanjana Bandlamudi_2</t>
   </si>
   <si>
@@ -392,6 +494,9 @@
   </si>
   <si>
     <t>2020MEZ8119</t>
+  </si>
+  <si>
+    <t>mez208119@iitd.ac.in</t>
   </si>
   <si>
     <t>Vamsi Krishna Majeti_2</t>
@@ -414,10 +519,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -428,11 +533,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -452,15 +588,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,54 +609,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,15 +625,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,10 +640,26 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -571,6 +669,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -581,19 +686,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,163 +842,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,6 +877,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -793,82 +972,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -877,153 +982,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1345,17 +1456,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="29.6" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
-    <col min="3" max="3" width="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1365,926 +1475,1186 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>33</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>37</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>41</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>51</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>58</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>68</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>78</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>84</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>88</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>75</v>
+        <v>94</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>98</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>78</v>
+        <v>98</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+        <v>104</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>107</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>107</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B65" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>88</v>
+        <v>111</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>117</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>117</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+        <v>121</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>124</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>124</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>37</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="B73" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B74">
         <v>1223456</v>
       </c>
-      <c r="C74">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="B75">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="B76">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="B77">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="B78">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B79">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="B80">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="B81">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="B82">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="B83">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="B84">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B85">
         <v>1223456</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="B86">
         <v>1223456</v>
       </c>
+      <c r="C86" s="2" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>145</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B88" t="s">
-        <v>116</v>
+        <v>145</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B91" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>111</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>88</v>
+        <v>111</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="B94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>153</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>120</v>
+        <v>153</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="B102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>159</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
-        <v>125</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="email-id" tooltip="mailto:bsroy309@gmail.com"/>
+    <hyperlink ref="C98" r:id="rId2" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C99" r:id="rId2" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C100" r:id="rId2" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C101" r:id="rId2" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C102" r:id="rId2" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C103" r:id="rId2" display="mez208119@iitd.ac.in"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/sheet_guest.xlsx
+++ b/sheet_guest.xlsx
@@ -14,17 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="166">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>EntryNum</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="180">
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Entrynum</t>
   </si>
   <si>
     <t>email-id</t>
   </si>
   <si>
+    <t>Index</t>
+  </si>
+  <si>
     <t>Supraja Kolli_1</t>
   </si>
   <si>
@@ -457,21 +460,21 @@
     <t>Killampallli rajesh_2</t>
   </si>
   <si>
-    <t>asz228435@iitd.ac.in</t>
-  </si>
-  <si>
-    <t>asz228436@iitd.ac.in</t>
-  </si>
-  <si>
-    <t>asz228437@iitd.ac.in</t>
-  </si>
-  <si>
-    <t>asz228438@iitd.ac.in</t>
-  </si>
-  <si>
     <t>Siva Prasad Vanum_5</t>
   </si>
   <si>
+    <t>Siva Prasad Vanum_6</t>
+  </si>
+  <si>
+    <t>Siva Prasad Vanum_7</t>
+  </si>
+  <si>
+    <t>Siva Prasad Vanum_8</t>
+  </si>
+  <si>
+    <t>Siva Prasad Vanum_9</t>
+  </si>
+  <si>
     <t>Sanjana Bandlamudi_1</t>
   </si>
   <si>
@@ -512,6 +515,45 @@
   </si>
   <si>
     <t>Vamsi Krishna Majeti_6</t>
+  </si>
+  <si>
+    <t>Rahul Koutilya_1</t>
+  </si>
+  <si>
+    <t>2018ME10654</t>
+  </si>
+  <si>
+    <t>koutilvydya26@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul Koutilya_2</t>
+  </si>
+  <si>
+    <t>2018ME10655</t>
+  </si>
+  <si>
+    <t>Rahul Koutilya_3</t>
+  </si>
+  <si>
+    <t>2018ME10656</t>
+  </si>
+  <si>
+    <t>Rahul Koutilya_4</t>
+  </si>
+  <si>
+    <t>2018ME10657</t>
+  </si>
+  <si>
+    <t>Sri Harsha Dorapudi_1</t>
+  </si>
+  <si>
+    <t>2020MEZ8831</t>
+  </si>
+  <si>
+    <t>ramji.07@gmail.com</t>
+  </si>
+  <si>
+    <t>Sri Harsha Dorapudi_2</t>
   </si>
 </sst>
 </file>
@@ -519,9 +561,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -535,17 +577,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -556,47 +590,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -609,25 +612,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,9 +636,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +661,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,8 +703,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -686,7 +728,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -698,19 +794,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,49 +866,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,79 +896,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,13 +908,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,31 +926,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -943,17 +961,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -969,6 +976,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -977,164 +1008,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,1204 +1497,1551 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.775" defaultRowHeight="13.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.6" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="1" max="1" width="29.5583333333333" customWidth="1"/>
+    <col min="2" max="3" width="21.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2"/>
+      <c r="D4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2"/>
+      <c r="D6">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="D10">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2"/>
+      <c r="D15">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="C16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2"/>
+      <c r="D18">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="D20">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="2"/>
+      <c r="D22">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="C25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="C27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="2"/>
+      <c r="D28">
+        <v>27</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="C30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D31" s="2"/>
+      <c r="D31">
+        <v>30</v>
+      </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="C32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="2"/>
+      <c r="D33">
+        <v>32</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="C34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="C35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="C36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="2"/>
+      <c r="D37">
+        <v>36</v>
+      </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="C39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>94</v>
+      </c>
+      <c r="B54" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>98</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>115</v>
+      </c>
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>116</v>
+      </c>
+      <c r="B66" t="s">
+        <v>112</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>117</v>
+      </c>
+      <c r="B67" t="s">
+        <v>118</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69">
         <v>68</v>
       </c>
-      <c r="C40" s="2" t="s">
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70">
         <v>69</v>
       </c>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>68</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>88</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" t="s">
-        <v>88</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" t="s">
-        <v>88</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" t="s">
-        <v>98</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" t="s">
-        <v>104</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" t="s">
-        <v>107</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>115</v>
-      </c>
-      <c r="B66" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>116</v>
-      </c>
-      <c r="B67" t="s">
-        <v>117</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>119</v>
-      </c>
-      <c r="B68" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>120</v>
-      </c>
-      <c r="B69" t="s">
-        <v>121</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" t="s">
-        <v>124</v>
-      </c>
-      <c r="C70" s="2" t="s">
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+      <c r="C71" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B71" t="s">
-        <v>124</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B72" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B74">
         <v>1223456</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="C74" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B75">
         <v>1223456</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="C75" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B76">
         <v>1223456</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="C76" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B77">
         <v>1223456</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="C77" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B78">
         <v>1223456</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="C78" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B79">
         <v>1223456</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="C79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B80">
         <v>1223456</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="C80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B81">
         <v>1223456</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="C81" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B82">
         <v>1223456</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="C82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83">
         <v>1223456</v>
       </c>
-      <c r="C83" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="C83" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B84">
         <v>1223456</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="C84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B85">
         <v>1223456</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="C85" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B86">
         <v>1223456</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="C86" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B87" t="s">
-        <v>145</v>
-      </c>
-      <c r="C87" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>146</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>149</v>
+      </c>
+      <c r="B90" t="s">
+        <v>112</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>151</v>
+      </c>
+      <c r="B92" t="s">
+        <v>112</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>152</v>
+      </c>
+      <c r="B93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>153</v>
+      </c>
+      <c r="B94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>156</v>
+      </c>
+      <c r="B95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>158</v>
+      </c>
+      <c r="B97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>159</v>
+      </c>
+      <c r="B98" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>162</v>
+      </c>
+      <c r="B99" t="s">
+        <v>160</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D100">
         <v>99</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>146</v>
-      </c>
-      <c r="B88" t="s">
-        <v>145</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>110</v>
-      </c>
-      <c r="B89" t="s">
-        <v>111</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>113</v>
-      </c>
-      <c r="B90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>114</v>
-      </c>
-      <c r="B91" t="s">
-        <v>111</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>115</v>
-      </c>
-      <c r="B92" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>151</v>
-      </c>
-      <c r="B93" t="s">
-        <v>111</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>152</v>
-      </c>
-      <c r="B94" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>155</v>
-      </c>
-      <c r="B95" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>156</v>
-      </c>
-      <c r="B96" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>158</v>
-      </c>
-      <c r="B98" t="s">
-        <v>159</v>
-      </c>
-      <c r="C98" s="1" t="s">
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>164</v>
+      </c>
+      <c r="B101" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
+      <c r="C101" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B99" t="s">
-        <v>159</v>
-      </c>
-      <c r="C99" s="1" t="s">
+      <c r="D101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>162</v>
-      </c>
-      <c r="B100" t="s">
-        <v>159</v>
-      </c>
-      <c r="C100" s="1" t="s">
+      <c r="C102" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101" t="s">
-        <v>159</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>164</v>
-      </c>
-      <c r="B102" t="s">
-        <v>159</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" t="s">
-        <v>159</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104" t="s">
+        <v>169</v>
+      </c>
+      <c r="D104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" t="s">
+        <v>171</v>
+      </c>
+      <c r="C105" t="s">
+        <v>169</v>
+      </c>
+      <c r="D105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>172</v>
+      </c>
+      <c r="B106" t="s">
+        <v>173</v>
+      </c>
+      <c r="C106" t="s">
+        <v>169</v>
+      </c>
+      <c r="D106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" t="s">
+        <v>169</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" display="email-id" tooltip="mailto:bsroy309@gmail.com"/>
-    <hyperlink ref="C98" r:id="rId2" display="mez208119@iitd.ac.in"/>
-    <hyperlink ref="C99" r:id="rId2" display="mez208119@iitd.ac.in"/>
-    <hyperlink ref="C100" r:id="rId2" display="mez208119@iitd.ac.in"/>
-    <hyperlink ref="C101" r:id="rId2" display="mez208119@iitd.ac.in"/>
-    <hyperlink ref="C102" r:id="rId2" display="mez208119@iitd.ac.in"/>
-    <hyperlink ref="C103" r:id="rId2" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C98" r:id="rId1" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C99:C103" r:id="rId1" display="mez208119@iitd.ac.in"/>
+    <hyperlink ref="C108" r:id="rId2" display="ramji.07@gmail.com"/>
+    <hyperlink ref="C109" r:id="rId2" display="ramji.07@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
